--- a/ExcelDBviaEntityFramework/Excel files/Signups v02.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups v02.xlsx
@@ -5,16 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emiel.Nijhuis\source\repos\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B1733-A5CA-4FA8-BE19-827B608CF176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C3CAE5-7A88-4F9D-A52F-83867F1841BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="1584" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-1410" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signups" sheetId="1" r:id="rId1"/>
-    <sheet name="Log" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Signups!$A$1:$E$1</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -74,15 +73,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Entry</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Signup id</t>
   </si>
 </sst>
 </file>
@@ -145,7 +135,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,20 +416,20 @@
   <sheetPr codeName="ShSignups"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -456,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -473,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -490,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -513,32 +503,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA8AD89-DBCB-46AD-B806-62CE1E64A15E}">
-  <sheetPr codeName="ShLog"/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>